--- a/definitions/employee.xlsx
+++ b/definitions/employee.xlsx
@@ -10,14 +10,14 @@
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$F$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">=Sheet1!$A$1:$F$89</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="193">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -58,7 +58,7 @@
     <t>S_PA0000</t>
   </si>
   <si>
-    <t>foreign_key(S_EMPLOYEE.PERNR)</t>
+    <t>foreign_key('S_EMPLOYEE', 'PERNR')</t>
   </si>
   <si>
     <t>Custom function that simulates a foreign key relationship, referencing PERSON_NUMBER values from the S_EMPLOYEE table.</t>
@@ -70,13 +70,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>default("AQUI")</t>
+    <t>generate_end_date(PERNR, BEGDA)</t>
+  </si>
+  <si>
+    <t>Custom function reads the ENDDA value from S_PA0000 and assigns it to this column to maintain consistency between related records.</t>
   </si>
   <si>
     <t>BEGDA</t>
   </si>
   <si>
-    <t>default("DESPUE")</t>
+    <t>generate_start_date(PERNR)</t>
+  </si>
+  <si>
+    <t>Custom function reads the BEGDA value from S_PA0000 and assigns it to this column to maintain consistency between related records.</t>
   </si>
   <si>
     <t>MASSN</t>
@@ -91,6 +97,9 @@
     <t>MASSG</t>
   </si>
   <si>
+    <t>Note: According to Naveen output: "Continue with the blank values for the action type"</t>
+  </si>
+  <si>
     <t>STAT2</t>
   </si>
   <si>
@@ -106,195 +115,467 @@
     <t>BUKRS</t>
   </si>
   <si>
+    <t>get_company_code()</t>
+  </si>
+  <si>
+    <t>Custom function assigns 1710 for USA and 2910 for CANADA, following the mapping.</t>
+  </si>
+  <si>
     <t>WERKS</t>
   </si>
   <si>
+    <t>get_personnel_area(BUKRS)</t>
+  </si>
+  <si>
     <t>VDSK1</t>
   </si>
   <si>
     <t xml:space="preserve">14    </t>
   </si>
   <si>
+    <t>copy_value(PERNR)</t>
+  </si>
+  <si>
+    <t>Same value as the BUKRS (Company Code), based on the mapping rules.</t>
+  </si>
+  <si>
     <t>BTRTL</t>
   </si>
   <si>
+    <t>get_personnel_subarea(BUKRS)</t>
+  </si>
+  <si>
+    <t>Custom function assigns 1710 for USA and 2910 for CANADA, following the mapping defined in the Employee_KDS_Status tab.</t>
+  </si>
+  <si>
     <t>KOSTL</t>
   </si>
   <si>
+    <t>There's missing information in the mapping for this field. Pending clarification on mapping rules for 'KOSTL'.
+According to Navee's ouput: "For now, until we receive the data, let’s leave it NULL "</t>
+  </si>
+  <si>
     <t>KOKRS</t>
   </si>
   <si>
+    <t>default("A000")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'A000'</t>
+  </si>
+  <si>
     <t>PERSG</t>
   </si>
   <si>
     <t>PERSK</t>
   </si>
   <si>
+    <t>default("Y1")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'Y1'</t>
+  </si>
+  <si>
     <t>ORGEH</t>
   </si>
   <si>
+    <t>get_Organizational_Unit()</t>
+  </si>
+  <si>
+    <t>Custom function that assigns default organizational unit codes: 50000000 for US and 50000001 for Canada, as per the mapping rules.</t>
+  </si>
+  <si>
     <t>OTYPE</t>
   </si>
   <si>
+    <t>default("P")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'P'</t>
+  </si>
+  <si>
     <t>MSTBR</t>
   </si>
   <si>
     <t xml:space="preserve">8     </t>
   </si>
   <si>
+    <t>According to Navee's ouput: "For now, until we receive the data, let’s leave it NULL "</t>
+  </si>
+  <si>
     <t>S_PA0002</t>
   </si>
   <si>
+    <t>dummy_person_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40    </t>
+  </si>
+  <si>
+    <t>get_person_id()</t>
+  </si>
+  <si>
+    <t>Custom function randomly selects an `person_id` from `person_info.json`, which contains a list of predefined addresses. The returned `person_id` is then used to look up and retrieve the corresponding values for other columns, ensuring data consistency across address-related fields.</t>
+  </si>
+  <si>
     <t>INITS</t>
   </si>
   <si>
     <t xml:space="preserve">10    </t>
   </si>
   <si>
+    <t>get_inits(dummy_person_id)</t>
+  </si>
+  <si>
+    <t>Custom function uses a value from dummy_person_id to look up predefined addresses in a JSON file and returns the corresponding value for this column.</t>
+  </si>
+  <si>
     <t>NACHN</t>
   </si>
   <si>
-    <t xml:space="preserve">40    </t>
+    <t>get_Last_Name(dummy_person_id)</t>
   </si>
   <si>
     <t>NACH2</t>
   </si>
   <si>
+    <t>get_Second_Name(dummy_person_id)</t>
+  </si>
+  <si>
     <t>VORNA</t>
   </si>
   <si>
+    <t>get_First_Name(dummy_person_id)</t>
+  </si>
+  <si>
     <t>TITEL</t>
   </si>
   <si>
+    <t>get_Title(dummy_person_id)</t>
+  </si>
+  <si>
     <t>MIDNM</t>
   </si>
   <si>
+    <t>get_Middle_Name(dummy_person_id)</t>
+  </si>
+  <si>
+    <t>GESCH</t>
+  </si>
+  <si>
+    <t>GBDAT</t>
+  </si>
+  <si>
+    <t>get_Date_of_Birth(dummy_person_id)</t>
+  </si>
+  <si>
+    <t>NATIO</t>
+  </si>
+  <si>
+    <t>get_Nationality(dummy_person_id)</t>
+  </si>
+  <si>
     <t>SPRSL</t>
   </si>
   <si>
+    <t>get_Communication_Language(dummy_person_id)</t>
+  </si>
+  <si>
+    <t>FAMST</t>
+  </si>
+  <si>
+    <t>get_Marital_Status_Key(dummy_person_id)</t>
+  </si>
+  <si>
     <t>S_PA0006</t>
   </si>
   <si>
     <t>SUBTY</t>
   </si>
   <si>
+    <t>get_random_subty_spa0006</t>
+  </si>
+  <si>
+    <t>Custom function that randomly selects a SUBTY ID from a predfined list of values. (1 = Permanent Residence, 2 = Temporary Residence, 3 = Emergency Address, 4 = Address for Notifications)</t>
+  </si>
+  <si>
+    <t>dummy_address_id</t>
+  </si>
+  <si>
+    <t>get_address_id()</t>
+  </si>
+  <si>
+    <t>Custom function randomly selects an `address_id` from `employee_addresses_data.json`, which contains a list of predefined addresses. The returned `address_id` is then used to look up and retrieve the corresponding values for other columns, ensuring data consistency across address-related fields.</t>
+  </si>
+  <si>
     <t>ANSSA</t>
   </si>
   <si>
+    <t>get_address_record_type()</t>
+  </si>
+  <si>
+    <t>"Note: Mapping rule doesn’t mention what the values are, so the ones here are from SAP already defined, for now.
+Custom function assigns an address record type based on SAP Prefined values (01 (Correspondence), 02 (Notification), 03 (Fiscal), 04 (Payroll), 05 (Delivery), 06 (Temporary)."</t>
+  </si>
+  <si>
     <t>STRAS</t>
   </si>
   <si>
     <t xml:space="preserve">60    </t>
   </si>
   <si>
+    <t>get_post_stree_and_house_number(dummy_address_id)</t>
+  </si>
+  <si>
+    <t>Custom function uses a value from dummy_address_id to look up predefined addresses in a JSON file and returns the corresponding value for this column.</t>
+  </si>
+  <si>
     <t>ORT01</t>
   </si>
   <si>
+    <t>get_City(dummy_address_id)</t>
+  </si>
+  <si>
     <t>ORT02</t>
   </si>
   <si>
+    <t>get_District(dummy_address_id)</t>
+  </si>
+  <si>
     <t>PSTLZ</t>
   </si>
   <si>
+    <t>get_Postal_Code(dummy_address_id)</t>
+  </si>
+  <si>
     <t>LAND1</t>
   </si>
   <si>
+    <t>get_Country_Region_Key(dummy_address_id)</t>
+  </si>
+  <si>
     <t>LOCAT</t>
   </si>
   <si>
+    <t>get_second_Address_Line(dummy_address_id)</t>
+  </si>
+  <si>
     <t>ADR03</t>
   </si>
   <si>
+    <t>get_Street_two(dummy_address_id)</t>
+  </si>
+  <si>
     <t>ADR04</t>
   </si>
   <si>
+    <t>get_Street_three(dummy_address_id)</t>
+  </si>
+  <si>
     <t>STATE</t>
   </si>
   <si>
+    <t>get_region(dummy_address_id)</t>
+  </si>
+  <si>
     <t>HSNMR</t>
   </si>
   <si>
+    <t>get_house_number(dummy_address_id)</t>
+  </si>
+  <si>
     <t>BLDNG</t>
   </si>
   <si>
+    <t>get_building_number(dummy_address_id)</t>
+  </si>
+  <si>
     <t>FLOOR</t>
   </si>
   <si>
+    <t>get_floor_number(dummy_address_id)</t>
+  </si>
+  <si>
     <t>STRDS</t>
   </si>
   <si>
+    <t>get_street_abbreviation(dummy_address_id)</t>
+  </si>
+  <si>
     <t>COUNC</t>
   </si>
   <si>
+    <t>get_county_code(dummy_address_id)</t>
+  </si>
+  <si>
     <t>RCTVC</t>
   </si>
   <si>
+    <t>get_municipal_city_code(dummy_address_id)</t>
+  </si>
+  <si>
+    <t>dummy_comm_id</t>
+  </si>
+  <si>
+    <t>get_comm_id()</t>
+  </si>
+  <si>
+    <t>Custom function randomly selects an `comm_id` from `communication_records.json`, which contains a list of predefined addresses. The returned `address_id` is then used to look up and retrieve the corresponding values for other columns, ensuring data consistency across address-related fields.</t>
+  </si>
+  <si>
     <t>COM01</t>
   </si>
   <si>
+    <t>get_Type_COM01(dummy_comm_id)</t>
+  </si>
+  <si>
+    <t>Custom function uses a value from dummy_comm_id to look up predefined addresses in a JSON file and returns the corresponding value for this column.</t>
+  </si>
+  <si>
     <t>NUM01</t>
   </si>
   <si>
     <t xml:space="preserve">20    </t>
   </si>
   <si>
+    <t>get_Number_NUM01(dummy_comm_id)</t>
+  </si>
+  <si>
     <t>COM02</t>
   </si>
   <si>
+    <t>get_Type_COM02(dummy_comm_id)</t>
+  </si>
+  <si>
     <t>NUM02</t>
   </si>
   <si>
+    <t>get_Number_NUM02(dummy_comm_id)</t>
+  </si>
+  <si>
     <t>COM03</t>
   </si>
   <si>
+    <t>get_Type_COM03(dummy_comm_id)</t>
+  </si>
+  <si>
     <t>NUM03</t>
   </si>
   <si>
+    <t>get_Number_NUM03(dummy_comm_id)</t>
+  </si>
+  <si>
     <t>COM04</t>
   </si>
   <si>
+    <t>get_Type_COM04(dummy_comm_id)</t>
+  </si>
+  <si>
     <t>NUM04</t>
   </si>
   <si>
+    <t>get_Number_NUM04(dummy_comm_id)</t>
+  </si>
+  <si>
     <t>COM05</t>
   </si>
   <si>
+    <t>get_Type_COM05(dummy_comm_id)</t>
+  </si>
+  <si>
     <t>NUM05</t>
   </si>
   <si>
+    <t>get_Number_NUM05(dummy_comm_id)</t>
+  </si>
+  <si>
     <t>COM06</t>
   </si>
   <si>
+    <t>get_Type_COM06(dummy_comm_id)</t>
+  </si>
+  <si>
     <t>NUM06</t>
   </si>
   <si>
+    <t>get_Number_NUM06(dummy_comm_id)</t>
+  </si>
+  <si>
     <t>S_PA0105</t>
   </si>
   <si>
+    <t>default("0010")</t>
+  </si>
+  <si>
+    <t>Custom function assigns SAP predefined values for communication types. Since no specific values are defined in the mapping file yet, the approach is to use SAP standard codes. These include “0001” (System User Name), “0002” (Email), “0007” (Internet), and “0010” (Mobile Phone or Email). According to the current mapping rule, the default value assigned is “0010” (EMAIL_ADDRESS), but this can be adjusted if needed.</t>
+  </si>
+  <si>
     <t>USRTY</t>
   </si>
   <si>
+    <t>default("EMAIL")</t>
+  </si>
+  <si>
+    <t>Custom function sets “EMAIL” based on the value of SUBTY.</t>
+  </si>
+  <si>
     <t>S_INFOTYPE_TEXT</t>
   </si>
   <si>
     <t>INFTY</t>
   </si>
   <si>
+    <t>get_random_Infotype()</t>
+  </si>
+  <si>
+    <t>A custom function will assign one of the required infotypes (IT0000, IT0001, IT0002, IT0006, IT0105) randomly or in sequence to extend employee records to all relevant infotypes.</t>
+  </si>
+  <si>
+    <t>get_random_Subtype(INFTY)</t>
+  </si>
+  <si>
+    <t>A custom function will assign the subtype based on the selected infotype: “01” for IT0006, “0010” for IT0105 email, and “CELL” for IT0105 phone number. Other infotypes will leave subtype blank unless specified.</t>
+  </si>
+  <si>
     <t>S_HRP1001</t>
   </si>
   <si>
     <t>OBJID</t>
   </si>
   <si>
+    <t>generate_objid_p()</t>
+  </si>
+  <si>
+    <t>Custom function generates an object type ID as indicated in the mapping (SAP will provide the final value).</t>
+  </si>
+  <si>
     <t>SCLAS</t>
   </si>
   <si>
+    <t>default("S")</t>
+  </si>
+  <si>
+    <t>Custom function assigns S (Position) as the related object type because positions are required for persons (P) to report to in the hierarchy.</t>
+  </si>
+  <si>
     <t>SOBID</t>
   </si>
   <si>
+    <t>generate_sobid_s()</t>
+  </si>
+  <si>
+    <t>Custom function generates fake IDs to simulate the related object, as the mapping rules do not directly provide the expected values. (Need to confirmation on this)</t>
+  </si>
+  <si>
     <t>RSIGN</t>
   </si>
   <si>
+    <t>default("A002")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'A002'</t>
+  </si>
+  <si>
     <t>RELAT</t>
   </si>
   <si>
@@ -302,6 +583,12 @@
   </si>
   <si>
     <t xml:space="preserve">2     </t>
+  </si>
+  <si>
+    <t>default("100")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default '100'</t>
   </si>
   <si>
     <t>PROZT</t>
@@ -318,7 +605,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +617,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -360,13 +659,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -676,18 +981,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="52.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="102.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="4.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="4.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="50.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="136.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18" hidden="1">
@@ -710,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18" hidden="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -730,7 +1035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18" hidden="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -750,7 +1055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18" hidden="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -764,30 +1069,34 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18" hidden="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18" hidden="1">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -796,18 +1105,18 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18" hidden="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -815,17 +1124,17 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18" hidden="1">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -834,15 +1143,15 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18" hidden="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -853,12 +1162,16 @@
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18" hidden="1">
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -867,29 +1180,37 @@
         <v>16</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18" hidden="1">
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18" hidden="1">
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -897,15 +1218,19 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18" hidden="1">
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -913,31 +1238,39 @@
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18" hidden="1">
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18" hidden="1">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -945,15 +1278,19 @@
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18" hidden="1">
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -962,14 +1299,16 @@
         <v>9</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18" hidden="1">
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -977,15 +1316,19 @@
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18" hidden="1">
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -993,15 +1336,19 @@
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18" hidden="1">
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1009,15 +1356,19 @@
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18" hidden="1">
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -1025,15 +1376,19 @@
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18" hidden="1">
+      <c r="E20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1041,28 +1396,34 @@
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18" hidden="1">
+      <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18" hidden="1">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -1073,12 +1434,16 @@
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18" hidden="1">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>15</v>
@@ -1087,141 +1452,177 @@
         <v>16</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18" hidden="1">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18" hidden="1">
       <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18" hidden="1">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18" hidden="1">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18" hidden="1">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18" hidden="1">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18" hidden="1">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18" hidden="1">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -1229,43 +1630,55 @@
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18" hidden="1">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18" hidden="1">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18" hidden="1">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -1273,79 +1686,95 @@
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18" hidden="1">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18" hidden="1">
       <c r="A41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -1353,159 +1782,199 @@
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18" hidden="1">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18" hidden="1">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18" hidden="1">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18" hidden="1">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18" hidden="1">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18" hidden="1">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18" hidden="1">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18" hidden="1">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18" hidden="1">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
@@ -1513,79 +1982,99 @@
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18" hidden="1">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18" hidden="1">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18" hidden="1">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18" hidden="1">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -1593,31 +2082,39 @@
       <c r="D56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18" hidden="1">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18" hidden="1">
       <c r="A58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
@@ -1625,111 +2122,139 @@
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18" hidden="1">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18" hidden="1">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18" hidden="1">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18" hidden="1">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18" hidden="1">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18" hidden="1">
       <c r="A64" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18" hidden="1">
       <c r="A65" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
@@ -1737,59 +2262,79 @@
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18" hidden="1">
       <c r="A66" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18" hidden="1">
       <c r="A67" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18" hidden="1">
       <c r="A68" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18" hidden="1">
       <c r="A69" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
@@ -1797,119 +2342,155 @@
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18" hidden="1">
       <c r="A70" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18" hidden="1">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18" hidden="1">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18" hidden="1">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18" hidden="1">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18" hidden="1">
       <c r="A75" s="1" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18" hidden="1">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18" hidden="1">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>8</v>
@@ -1917,47 +2498,55 @@
       <c r="D77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18" hidden="1">
       <c r="A78" s="1" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18" hidden="1">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18" hidden="1">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>8</v>
@@ -1965,40 +2554,188 @@
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18" hidden="1">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18" hidden="1">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18" hidden="1">
+      <c r="A83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18" hidden="1">
+      <c r="A84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18" hidden="1">
+      <c r="A85" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18" hidden="1">
+      <c r="A86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18" hidden="1">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18" hidden="1">
+      <c r="A88" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18" hidden="1">
+      <c r="A89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/definitions/employee.xlsx
+++ b/definitions/employee.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="196">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -58,58 +58,67 @@
     <t>S_PA0000</t>
   </si>
   <si>
+    <t>foreign_key_test('S_EMPLOYEE', 'PERNR')</t>
+  </si>
+  <si>
+    <t>Custom function that simulates a foreign key relationship, referencing PERSON_NUMBER values from the S_EMPLOYEE table.</t>
+  </si>
+  <si>
+    <t>ENDDA</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>generate_end_date_test(PERNR)</t>
+  </si>
+  <si>
+    <t>Custom function reads the ENDDA value from S_PA0000 and assigns it to this column to maintain consistency between related records.</t>
+  </si>
+  <si>
+    <t>BEGDA</t>
+  </si>
+  <si>
+    <t>generate_start_date_test(PERNR)</t>
+  </si>
+  <si>
+    <t>Custom function reads the BEGDA value from S_PA0000 and assigns it to this column to maintain consistency between related records.</t>
+  </si>
+  <si>
+    <t>MASSN</t>
+  </si>
+  <si>
+    <t>default("1")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default '1'</t>
+  </si>
+  <si>
+    <t>MASSG</t>
+  </si>
+  <si>
+    <t>Note: According to Naveen output: "Continue with the blank values for the action type"</t>
+  </si>
+  <si>
+    <t>STAT2</t>
+  </si>
+  <si>
+    <t>default("3")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default '3'</t>
+  </si>
+  <si>
+    <t>S_PA0001</t>
+  </si>
+  <si>
     <t>foreign_key('S_EMPLOYEE', 'PERNR')</t>
   </si>
   <si>
-    <t>Custom function that simulates a foreign key relationship, referencing PERSON_NUMBER values from the S_EMPLOYEE table.</t>
-  </si>
-  <si>
-    <t>ENDDA</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>generate_end_date(PERNR, BEGDA)</t>
   </si>
   <si>
-    <t>Custom function reads the ENDDA value from S_PA0000 and assigns it to this column to maintain consistency between related records.</t>
-  </si>
-  <si>
-    <t>BEGDA</t>
-  </si>
-  <si>
     <t>generate_start_date(PERNR)</t>
-  </si>
-  <si>
-    <t>Custom function reads the BEGDA value from S_PA0000 and assigns it to this column to maintain consistency between related records.</t>
-  </si>
-  <si>
-    <t>MASSN</t>
-  </si>
-  <si>
-    <t>default("1")</t>
-  </si>
-  <si>
-    <t>According to Vendor Mapping: Use default '1'</t>
-  </si>
-  <si>
-    <t>MASSG</t>
-  </si>
-  <si>
-    <t>Note: According to Naveen output: "Continue with the blank values for the action type"</t>
-  </si>
-  <si>
-    <t>STAT2</t>
-  </si>
-  <si>
-    <t>default("3")</t>
-  </si>
-  <si>
-    <t>According to Vendor Mapping: Use default '3'</t>
-  </si>
-  <si>
-    <t>S_PA0001</t>
   </si>
   <si>
     <t>BUKRS</t>
@@ -605,7 +614,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,12 +626,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -659,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -668,9 +671,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -987,12 +987,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="4.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="50.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="136.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="4.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="4.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="50.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="136.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18" hidden="1">
@@ -1035,7 +1035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18" hidden="1">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1163,13 +1163,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18" hidden="1">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1181,13 +1181,13 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18" hidden="1">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1199,18 +1199,18 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18" hidden="1">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1219,18 +1219,18 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18" hidden="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -1239,38 +1239,38 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18" hidden="1">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18" hidden="1">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1279,18 +1279,18 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18" hidden="1">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1300,15 +1300,15 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18" hidden="1">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1317,18 +1317,18 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18" hidden="1">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1343,12 +1343,12 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18" hidden="1">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1357,18 +1357,18 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18" hidden="1">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -1377,18 +1377,18 @@
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18" hidden="1">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1397,33 +1397,33 @@
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18" hidden="1">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18" hidden="1">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>14</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18" hidden="1">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>15</v>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18" hidden="1">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>21</v>
@@ -1479,110 +1479,110 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18" hidden="1">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18" hidden="1">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18" hidden="1">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18" hidden="1">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18" hidden="1">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -1591,38 +1591,38 @@
         <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18" hidden="1">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18" hidden="1">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -1631,54 +1631,54 @@
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18" hidden="1">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18" hidden="1">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18" hidden="1">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -1687,18 +1687,18 @@
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -1707,18 +1707,18 @@
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -1727,15 +1727,15 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18" hidden="1">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>15</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>19</v>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>21</v>
@@ -1771,10 +1771,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18" hidden="1">
       <c r="A41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -1783,18 +1783,18 @@
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18" hidden="1">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -1803,98 +1803,98 @@
         <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18" hidden="1">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18" hidden="1">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18" hidden="1">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18" hidden="1">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -1903,78 +1903,78 @@
         <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18" hidden="1">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18" hidden="1">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18" hidden="1">
       <c r="A50" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18" hidden="1">
       <c r="A51" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
@@ -1983,78 +1983,78 @@
         <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18" hidden="1">
       <c r="A52" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18" hidden="1">
       <c r="A53" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18" hidden="1">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
@@ -2063,18 +2063,18 @@
         <v>9</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18" hidden="1">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -2083,18 +2083,18 @@
         <v>9</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18" hidden="1">
       <c r="A57" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
@@ -2103,18 +2103,18 @@
         <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18" hidden="1">
       <c r="A58" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>92</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
@@ -2123,18 +2123,18 @@
         <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18" hidden="1">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -2143,38 +2143,38 @@
         <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18" hidden="1">
       <c r="A60" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18" hidden="1">
       <c r="A61" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
@@ -2183,38 +2183,38 @@
         <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18" hidden="1">
       <c r="A62" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18" hidden="1">
       <c r="A63" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
@@ -2223,38 +2223,38 @@
         <v>9</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18" hidden="1">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18" hidden="1">
       <c r="A65" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
@@ -2263,38 +2263,38 @@
         <v>9</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18" hidden="1">
       <c r="A66" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18" hidden="1">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
@@ -2303,38 +2303,38 @@
         <v>9</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18" hidden="1">
       <c r="A68" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18" hidden="1">
       <c r="A69" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
@@ -2343,35 +2343,35 @@
         <v>9</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18" hidden="1">
       <c r="A70" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18" hidden="1">
       <c r="A71" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
@@ -2383,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
@@ -2391,10 +2391,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18" hidden="1">
       <c r="A72" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
@@ -2403,15 +2403,15 @@
         <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18" hidden="1">
       <c r="A73" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>15</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18" hidden="1">
       <c r="A74" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>19</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>21</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18" hidden="1">
       <c r="A75" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
@@ -2459,18 +2459,18 @@
         <v>9</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18" hidden="1">
       <c r="A76" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
@@ -2479,18 +2479,18 @@
         <v>9</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18" hidden="1">
       <c r="A77" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>8</v>
@@ -2499,15 +2499,15 @@
         <v>9</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18" hidden="1">
       <c r="A78" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>15</v>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>18</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18" hidden="1">
       <c r="A79" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>19</v>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>21</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18" hidden="1">
       <c r="A80" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>8</v>
@@ -2555,18 +2555,18 @@
         <v>9</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18" hidden="1">
       <c r="A81" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>8</v>
@@ -2575,15 +2575,15 @@
         <v>9</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18" hidden="1">
       <c r="A82" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>19</v>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>18</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18" hidden="1">
       <c r="A83" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>15</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>21</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18" hidden="1">
       <c r="A84" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>8</v>
@@ -2631,18 +2631,18 @@
         <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18" hidden="1">
       <c r="A85" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>8</v>
@@ -2651,18 +2651,18 @@
         <v>9</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18" hidden="1">
       <c r="A86" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
@@ -2671,18 +2671,18 @@
         <v>9</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18" hidden="1">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
@@ -2691,50 +2691,50 @@
         <v>9</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18" hidden="1">
       <c r="A88" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18" hidden="1">
       <c r="A89" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="F89" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/definitions/employee.xlsx
+++ b/definitions/employee.xlsx
@@ -10,14 +10,14 @@
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">=Sheet1!$A$1:$F$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">=Sheet1!$A$1:$F$85</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="191">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -58,7 +58,7 @@
     <t>S_PA0000</t>
   </si>
   <si>
-    <t>foreign_key_test('S_EMPLOYEE', 'PERNR')</t>
+    <t>foreign_key('S_EMPLOYEE', 'PERNR')</t>
   </si>
   <si>
     <t>Custom function that simulates a foreign key relationship, referencing PERSON_NUMBER values from the S_EMPLOYEE table.</t>
@@ -70,19 +70,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>generate_end_date_test(PERNR)</t>
-  </si>
-  <si>
-    <t>Custom function reads the ENDDA value from S_PA0000 and assigns it to this column to maintain consistency between related records.</t>
+    <t>generate_end_date(PERNR)</t>
+  </si>
+  <si>
+    <t>The generate_end_date function assigns an END DATE (ENDDA) based on foreign key logic, allowing up to two records per employee (one active, one inactive).</t>
   </si>
   <si>
     <t>BEGDA</t>
   </si>
   <si>
-    <t>generate_start_date_test(PERNR)</t>
-  </si>
-  <si>
-    <t>Custom function reads the BEGDA value from S_PA0000 and assigns it to this column to maintain consistency between related records.</t>
+    <t>generate_start_date(PERNR)</t>
+  </si>
+  <si>
+    <t>The generate_start_date function assigns a START DATE (BEGDA) based on foreign key logic, allowing up to two records per employee (one active, one inactive).</t>
   </si>
   <si>
     <t>MASSN</t>
@@ -112,13 +112,16 @@
     <t>S_PA0001</t>
   </si>
   <si>
-    <t>foreign_key('S_EMPLOYEE', 'PERNR')</t>
-  </si>
-  <si>
-    <t>generate_end_date(PERNR, BEGDA)</t>
-  </si>
-  <si>
-    <t>generate_start_date(PERNR)</t>
+    <t>copy_value_from_table("PERNR")</t>
+  </si>
+  <si>
+    <t>The copy_value_from_table function copies values from specified rows and columns of a source table, maintaining an internal dictionary to track rows needing propagation. It ensures consistency across related tables (e.g., copying ENDDA, BEGDA, and PERNR values from S_PA0000 to S_PA0001), leveraging the strong relationships defined by these columns.</t>
+  </si>
+  <si>
+    <t>copy_value_from_table("ENDDA")</t>
+  </si>
+  <si>
+    <t>copy_value_from_table("BEGDA")</t>
   </si>
   <si>
     <t>BUKRS</t>
@@ -142,7 +145,7 @@
     <t xml:space="preserve">14    </t>
   </si>
   <si>
-    <t>copy_value(PERNR)</t>
+    <t>copy_value_from_column(PERNR)</t>
   </si>
   <si>
     <t>Same value as the BUKRS (Company Code), based on the mapping rules.</t>
@@ -188,7 +191,7 @@
     <t>ORGEH</t>
   </si>
   <si>
-    <t>get_Organizational_Unit()</t>
+    <t>get_Organizational_Unit(BURKS)</t>
   </si>
   <si>
     <t>Custom function that assigns default organizational unit codes: 50000000 for US and 50000001 for Canada, as per the mapping rules.</t>
@@ -260,7 +263,7 @@
     <t>TITEL</t>
   </si>
   <si>
-    <t>get_Title(dummy_person_id)</t>
+    <t>According to the mapping file, default value 1</t>
   </si>
   <si>
     <t>MIDNM</t>
@@ -269,31 +272,13 @@
     <t>get_Middle_Name(dummy_person_id)</t>
   </si>
   <si>
-    <t>GESCH</t>
-  </si>
-  <si>
-    <t>GBDAT</t>
-  </si>
-  <si>
-    <t>get_Date_of_Birth(dummy_person_id)</t>
-  </si>
-  <si>
-    <t>NATIO</t>
-  </si>
-  <si>
-    <t>get_Nationality(dummy_person_id)</t>
-  </si>
-  <si>
     <t>SPRSL</t>
   </si>
   <si>
-    <t>get_Communication_Language(dummy_person_id)</t>
-  </si>
-  <si>
-    <t>FAMST</t>
-  </si>
-  <si>
-    <t>get_Marital_Status_Key(dummy_person_id)</t>
+    <t>get_Communication_Language("S_PA0001", "PERNR","BUKRS",PERNR)</t>
+  </si>
+  <si>
+    <t>Based on the PERN - get_Communication_Language uses the lookup_parent_value function the get the company code from the S_PA0001 file and based on the return value it assigns a communication language (E for US and F or E for Canada.)</t>
   </si>
   <si>
     <t>S_PA0006</t>
@@ -981,13 +966,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="18.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="4.719285714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="4.433571428571429" customWidth="1" bestFit="1"/>
@@ -1035,7 +1020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18" hidden="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18" hidden="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18" hidden="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18" hidden="1">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18" hidden="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18" hidden="1">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1151,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18" hidden="1">
@@ -1181,10 +1166,10 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18" hidden="1">
@@ -1199,10 +1184,10 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18" hidden="1">
@@ -1210,7 +1195,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1219,10 +1204,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18" hidden="1">
@@ -1230,19 +1215,19 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18" hidden="1">
@@ -1250,19 +1235,19 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18" hidden="1">
@@ -1270,7 +1255,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1279,10 +1264,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18" hidden="1">
@@ -1290,7 +1275,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1300,7 +1285,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18" hidden="1">
@@ -1308,7 +1293,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1317,10 +1302,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18" hidden="1">
@@ -1328,7 +1313,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1348,7 +1333,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1357,10 +1342,10 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18" hidden="1">
@@ -1368,7 +1353,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -1376,11 +1361,11 @@
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>56</v>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18" hidden="1">
@@ -1388,7 +1373,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1397,10 +1382,10 @@
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18" hidden="1">
@@ -1408,22 +1393,22 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18" hidden="1">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -1438,12 +1423,12 @@
         <v>31</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18" hidden="1">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>15</v>
@@ -1453,15 +1438,15 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18" hidden="1">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
@@ -1471,118 +1456,118 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18" hidden="1">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18" hidden="1">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18" hidden="1">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18" hidden="1">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18" hidden="1">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -1591,38 +1576,38 @@
         <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18" hidden="1">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18" hidden="1">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -1631,74 +1616,74 @@
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18" hidden="1">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18" hidden="1">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18" hidden="1">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -1707,18 +1692,18 @@
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -1727,174 +1712,178 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18" hidden="1">
       <c r="A39" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E39" s="2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E40" s="2" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18" hidden="1">
       <c r="A41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18" hidden="1">
       <c r="A42" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18" hidden="1">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18" hidden="1">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18" hidden="1">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18" hidden="1">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -1903,78 +1892,78 @@
         <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18" hidden="1">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18" hidden="1">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18" hidden="1">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18" hidden="1">
       <c r="A51" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
@@ -1983,78 +1972,78 @@
         <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18" hidden="1">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18" hidden="1">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>87</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18" hidden="1">
       <c r="A55" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
@@ -2063,38 +2052,38 @@
         <v>9</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18" hidden="1">
       <c r="A56" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18" hidden="1">
       <c r="A57" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
@@ -2103,38 +2092,38 @@
         <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18" hidden="1">
       <c r="A58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18" hidden="1">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -2143,38 +2132,38 @@
         <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18" hidden="1">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18" hidden="1">
       <c r="A61" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
@@ -2183,38 +2172,38 @@
         <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18" hidden="1">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18" hidden="1">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
@@ -2223,38 +2212,38 @@
         <v>9</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18" hidden="1">
       <c r="A64" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18" hidden="1">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
@@ -2263,38 +2252,38 @@
         <v>9</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18" hidden="1">
       <c r="A66" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18" hidden="1">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
@@ -2303,98 +2292,94 @@
         <v>9</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18" hidden="1">
       <c r="A68" s="1" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18" hidden="1">
       <c r="A69" s="1" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D69" s="1"/>
       <c r="E69" s="2" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18" hidden="1">
       <c r="A70" s="1" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="2" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18" hidden="1">
       <c r="A71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18" hidden="1">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
@@ -2403,36 +2388,38 @@
         <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18" hidden="1">
       <c r="A73" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E73" s="2" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18" hidden="1">
       <c r="A74" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>16</v>
@@ -2442,131 +2429,129 @@
         <v>33</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18" hidden="1">
       <c r="A75" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D75" s="1"/>
       <c r="E75" s="2" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18" hidden="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18" hidden="1">
-      <c r="A77" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18" hidden="1">
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18" hidden="1">
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18" hidden="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18" hidden="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>8</v>
@@ -2575,166 +2560,90 @@
         <v>9</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18" hidden="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E82" s="2" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18" hidden="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E83" s="2" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18" hidden="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18" hidden="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18" hidden="1">
-      <c r="A86" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F86" s="2" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18" hidden="1">
-      <c r="A87" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18" hidden="1">
-      <c r="A88" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18" hidden="1">
-      <c r="A89" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/definitions/employee.xlsx
+++ b/definitions/employee.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">80    </t>
   </si>
   <si>
-    <t>generate_person_number()</t>
+    <t>person_number()</t>
   </si>
   <si>
     <t>Custom function that generates a fake Person Number.</t>
@@ -980,7 +980,7 @@
     <col min="6" max="6" style="5" width="136.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="28.5">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="1" t="s">
         <v>87</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="1" t="s">
         <v>87</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
       <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
       <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="1" t="s">
         <v>87</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="1" t="s">
         <v>87</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="1" t="s">
         <v>87</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="1" t="s">
         <v>87</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
       <c r="A54" s="1" t="s">
         <v>87</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="1" t="s">
         <v>87</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="1" t="s">
         <v>87</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="1" t="s">
         <v>87</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="1" t="s">
         <v>87</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="1" t="s">
         <v>87</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
       <c r="A62" s="1" t="s">
         <v>87</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
       <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="1" t="s">
         <v>87</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="1" t="s">
         <v>87</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="1" t="s">
         <v>158</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="1" t="s">
         <v>158</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="1" t="s">
         <v>158</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="1" t="s">
         <v>158</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="1" t="s">
         <v>158</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
       <c r="A72" s="1" t="s">
         <v>164</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
       <c r="A73" s="1" t="s">
         <v>164</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>169</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
       <c r="A74" s="1" t="s">
         <v>164</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18" hidden="1">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
       <c r="A76" s="1" t="s">
         <v>170</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
       <c r="A77" s="1" t="s">
         <v>170</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
       <c r="A78" s="1" t="s">
         <v>170</v>
       </c>
@@ -2502,13 +2502,13 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
       <c r="A79" s="1" t="s">
         <v>170</v>
       </c>
@@ -2520,13 +2520,13 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
       <c r="A80" s="1" t="s">
         <v>170</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
       <c r="A81" s="1" t="s">
         <v>170</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
       <c r="A82" s="1" t="s">
         <v>170</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
       <c r="A83" s="1" t="s">
         <v>170</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
       <c r="A84" s="1" t="s">
         <v>170</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
       <c r="A85" s="1" t="s">
         <v>170</v>
       </c>
